--- a/src/test/resources/test_data/Phase5project.xlsx
+++ b/src/test/resources/test_data/Phase5project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enes\Documents\selenium\BriteErpBackEndTesting\src\test\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C9BE1A-F7B9-4951-B149-B5FAD16B75E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB54E5D2-52AC-456A-83DE-2624E426CF59}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19020" yWindow="2760" windowWidth="15375" windowHeight="7995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pipeline" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="131">
   <si>
     <t>Name_field</t>
   </si>
@@ -44,12 +44,6 @@
     <t>ZIP</t>
   </si>
   <si>
-    <t>TIN</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
     <t>Job_position</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
     <t>Maryland</t>
   </si>
   <si>
-    <t>Columbia</t>
-  </si>
-  <si>
     <t>AE222222</t>
   </si>
   <si>
@@ -420,6 +411,9 @@
   </si>
   <si>
     <t>www.saya.com</t>
+  </si>
+  <si>
+    <t>TAG</t>
   </si>
 </sst>
 </file>
@@ -856,10 +850,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -874,7 +868,7 @@
     <col min="15" max="15" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -897,491 +891,466 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2">
         <v>78000</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="G3" s="4">
         <v>35555</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="G4" s="4">
         <v>11212</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G5" s="4">
         <v>25656</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="M5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="N5" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="G6" s="4">
         <v>55555</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="M6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="N6" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="G7" s="4">
         <v>88888</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="M7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="N7" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="O7" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="G8" s="4">
         <v>66999</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="M8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="N8" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="O8" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="G9" s="4">
         <v>15555</v>
       </c>
       <c r="H9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="M9" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="N9" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="O9" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="G10" s="4">
         <v>22222</v>
       </c>
       <c r="H10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="M10" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="N10" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="M10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4">
         <v>53533</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="M11" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>117</v>
+      <c r="N11" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="N3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="N4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="N5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="N6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="N7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="N8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="N9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="N10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="N11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>